--- a/Code/Results/Cases/Case_2_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_214/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011165980846394</v>
+        <v>1.035511682083039</v>
       </c>
       <c r="D2">
-        <v>1.026384248706764</v>
+        <v>1.03801135020667</v>
       </c>
       <c r="E2">
-        <v>1.011070231251192</v>
+        <v>1.05317367678067</v>
       </c>
       <c r="F2">
-        <v>1.01624543233733</v>
+        <v>1.058945210776702</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049332856977328</v>
+        <v>1.03864372796957</v>
       </c>
       <c r="J2">
-        <v>1.03301777239853</v>
+        <v>1.04062505500605</v>
       </c>
       <c r="K2">
-        <v>1.037487850449812</v>
+        <v>1.040800599443739</v>
       </c>
       <c r="L2">
-        <v>1.022377464819193</v>
+        <v>1.055920375723657</v>
       </c>
       <c r="M2">
-        <v>1.027482988467231</v>
+        <v>1.061676059821212</v>
       </c>
       <c r="N2">
-        <v>1.014771546010513</v>
+        <v>1.0174845810174</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015983553781577</v>
+        <v>1.036482519387162</v>
       </c>
       <c r="D3">
-        <v>1.029908285540235</v>
+        <v>1.038731259459284</v>
       </c>
       <c r="E3">
-        <v>1.016825310313173</v>
+        <v>1.054458096582255</v>
       </c>
       <c r="F3">
-        <v>1.02236740604709</v>
+        <v>1.060307389221325</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051039039399898</v>
+        <v>1.038911985225507</v>
       </c>
       <c r="J3">
-        <v>1.036047775749754</v>
+        <v>1.041239363595641</v>
       </c>
       <c r="K3">
-        <v>1.040172268081747</v>
+        <v>1.041330672385524</v>
       </c>
       <c r="L3">
-        <v>1.027247340934776</v>
+        <v>1.057016579847988</v>
       </c>
       <c r="M3">
-        <v>1.032721872424782</v>
+        <v>1.062850983470368</v>
       </c>
       <c r="N3">
-        <v>1.015786175010066</v>
+        <v>1.017689361002727</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019027251223565</v>
+        <v>1.037110368941933</v>
       </c>
       <c r="D4">
-        <v>1.032136542707355</v>
+        <v>1.039196727220969</v>
       </c>
       <c r="E4">
-        <v>1.020468204741047</v>
+        <v>1.055289787392761</v>
       </c>
       <c r="F4">
-        <v>1.02624159764097</v>
+        <v>1.06118938298625</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052104922466031</v>
+        <v>1.039083997356095</v>
       </c>
       <c r="J4">
-        <v>1.037956450839414</v>
+        <v>1.04163591361019</v>
       </c>
       <c r="K4">
-        <v>1.041861982803954</v>
+        <v>1.041672634513445</v>
       </c>
       <c r="L4">
-        <v>1.030325716824875</v>
+        <v>1.057725929407401</v>
       </c>
       <c r="M4">
-        <v>1.036033298971371</v>
+        <v>1.063611272047857</v>
       </c>
       <c r="N4">
-        <v>1.016425262464468</v>
+        <v>1.017821511258822</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020289885080728</v>
+        <v>1.037374233940513</v>
       </c>
       <c r="D5">
-        <v>1.033061282517744</v>
+        <v>1.039392322754204</v>
       </c>
       <c r="E5">
-        <v>1.021981167572898</v>
+        <v>1.055639572270549</v>
       </c>
       <c r="F5">
-        <v>1.027850398594626</v>
+        <v>1.061560312424626</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052544152771824</v>
+        <v>1.039155935671901</v>
       </c>
       <c r="J5">
-        <v>1.038746852275571</v>
+        <v>1.041802396034907</v>
       </c>
       <c r="K5">
-        <v>1.042561392533407</v>
+        <v>1.041816148461871</v>
       </c>
       <c r="L5">
-        <v>1.031603208557938</v>
+        <v>1.058024149354668</v>
       </c>
       <c r="M5">
-        <v>1.037407449422637</v>
+        <v>1.063930907301618</v>
       </c>
       <c r="N5">
-        <v>1.016689898483595</v>
+        <v>1.0178769819035</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020500912781819</v>
+        <v>1.037418533174451</v>
       </c>
       <c r="D6">
-        <v>1.03321585779984</v>
+        <v>1.039425158980966</v>
       </c>
       <c r="E6">
-        <v>1.022234140055502</v>
+        <v>1.055698311077561</v>
       </c>
       <c r="F6">
-        <v>1.028119382429726</v>
+        <v>1.061622601334797</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052617388828887</v>
+        <v>1.039167992403105</v>
       </c>
       <c r="J6">
-        <v>1.038878872140143</v>
+        <v>1.041830335841113</v>
       </c>
       <c r="K6">
-        <v>1.042678195049716</v>
+        <v>1.041840230598621</v>
       </c>
       <c r="L6">
-        <v>1.031816749502409</v>
+        <v>1.058074222395921</v>
       </c>
       <c r="M6">
-        <v>1.037637144145601</v>
+        <v>1.063984576099245</v>
       </c>
       <c r="N6">
-        <v>1.016734099261178</v>
+        <v>1.017886290663243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019044188274337</v>
+        <v>1.037113895044737</v>
       </c>
       <c r="D7">
-        <v>1.032148945794333</v>
+        <v>1.039199341121034</v>
       </c>
       <c r="E7">
-        <v>1.020488492621485</v>
+        <v>1.055294460674783</v>
       </c>
       <c r="F7">
-        <v>1.026263171532461</v>
+        <v>1.061194338813821</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052110825988481</v>
+        <v>1.039084960075362</v>
       </c>
       <c r="J7">
-        <v>1.037967058846311</v>
+        <v>1.041638139049348</v>
       </c>
       <c r="K7">
-        <v>1.04187137088422</v>
+        <v>1.041674553124406</v>
       </c>
       <c r="L7">
-        <v>1.030342851211557</v>
+        <v>1.057729914197912</v>
       </c>
       <c r="M7">
-        <v>1.036051730017464</v>
+        <v>1.063615542988595</v>
       </c>
       <c r="N7">
-        <v>1.016428814224485</v>
+        <v>1.017822252795649</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012809764078281</v>
+        <v>1.035839853051306</v>
       </c>
       <c r="D8">
-        <v>1.027586257758006</v>
+        <v>1.038254721477007</v>
       </c>
       <c r="E8">
-        <v>1.013032516678153</v>
+        <v>1.053607632437742</v>
       </c>
       <c r="F8">
-        <v>1.018333015576921</v>
+        <v>1.05940544788962</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04991752727956</v>
+        <v>1.038734711398074</v>
       </c>
       <c r="J8">
-        <v>1.034052797161975</v>
+        <v>1.040832859864835</v>
       </c>
       <c r="K8">
-        <v>1.038405084141136</v>
+        <v>1.040979953317112</v>
       </c>
       <c r="L8">
-        <v>1.024038801228124</v>
+        <v>1.056290837388673</v>
       </c>
       <c r="M8">
-        <v>1.029270251239706</v>
+        <v>1.062073124665259</v>
       </c>
       <c r="N8">
-        <v>1.015118143870208</v>
+        <v>1.017553861058028</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001227408418818</v>
+        <v>1.033592162828015</v>
       </c>
       <c r="D9">
-        <v>1.019126724305693</v>
+        <v>1.036587433868439</v>
       </c>
       <c r="E9">
-        <v>0.9992306138001772</v>
+        <v>1.050639621684401</v>
       </c>
       <c r="F9">
-        <v>1.003645704754117</v>
+        <v>1.056257492898296</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045747990148242</v>
+        <v>1.038105523401001</v>
       </c>
       <c r="J9">
-        <v>1.026736898058705</v>
+        <v>1.039406591704153</v>
       </c>
       <c r="K9">
-        <v>1.031916922686212</v>
+        <v>1.03974809655138</v>
       </c>
       <c r="L9">
-        <v>1.012336186104374</v>
+        <v>1.053755171218597</v>
       </c>
       <c r="M9">
-        <v>1.016679908573881</v>
+        <v>1.05935537397483</v>
       </c>
       <c r="N9">
-        <v>1.012668209394597</v>
+        <v>1.017078196417213</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.993055109231464</v>
+        <v>1.032091897317371</v>
       </c>
       <c r="D10">
-        <v>1.013173295446265</v>
+        <v>1.035474090230713</v>
       </c>
       <c r="E10">
-        <v>0.9895179424729309</v>
+        <v>1.048663780542634</v>
       </c>
       <c r="F10">
-        <v>0.9933045858719493</v>
+        <v>1.054161617861556</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042744348136728</v>
+        <v>1.037677999562609</v>
       </c>
       <c r="J10">
-        <v>1.021547004801512</v>
+        <v>1.038450863863562</v>
       </c>
       <c r="K10">
-        <v>1.027308706850905</v>
+        <v>1.038921568871639</v>
       </c>
       <c r="L10">
-        <v>1.004079068401625</v>
+        <v>1.05206473482828</v>
       </c>
       <c r="M10">
-        <v>1.007795789595298</v>
+        <v>1.057543557850101</v>
       </c>
       <c r="N10">
-        <v>1.010930324806254</v>
+        <v>1.016759258462094</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9893972069061807</v>
+        <v>1.031441833579004</v>
       </c>
       <c r="D11">
-        <v>1.010513151981498</v>
+        <v>1.034991574057097</v>
       </c>
       <c r="E11">
-        <v>0.9851746542911493</v>
+        <v>1.047808863438217</v>
       </c>
       <c r="F11">
-        <v>0.9886789500831219</v>
+        <v>1.053254706497086</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041385882705966</v>
+        <v>1.037490964898982</v>
       </c>
       <c r="J11">
-        <v>1.019217824865268</v>
+        <v>1.038035864494887</v>
       </c>
       <c r="K11">
-        <v>1.025239492194153</v>
+        <v>1.038562420045498</v>
       </c>
       <c r="L11">
-        <v>1.000381677304077</v>
+        <v>1.051332734623532</v>
       </c>
       <c r="M11">
-        <v>1.003817570153202</v>
+        <v>1.056759000906156</v>
       </c>
       <c r="N11">
-        <v>1.010150459977347</v>
+        <v>1.016620721614795</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9880194299229965</v>
+        <v>1.031200304560227</v>
       </c>
       <c r="D12">
-        <v>1.009511963084194</v>
+        <v>1.034812281644463</v>
       </c>
       <c r="E12">
-        <v>0.9835391449376462</v>
+        <v>1.047491402099101</v>
       </c>
       <c r="F12">
-        <v>0.9869369172788732</v>
+        <v>1.052917929223464</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040872149165739</v>
+        <v>1.037421204328413</v>
       </c>
       <c r="J12">
-        <v>1.018339628423213</v>
+        <v>1.037881540380285</v>
       </c>
       <c r="K12">
-        <v>1.024459169968345</v>
+        <v>1.038428827372134</v>
       </c>
       <c r="L12">
-        <v>0.998988653022</v>
+        <v>1.051060830453608</v>
       </c>
       <c r="M12">
-        <v>1.002318738826086</v>
+        <v>1.056467575008337</v>
       </c>
       <c r="N12">
-        <v>1.009856436632921</v>
+        <v>1.016569197566155</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9883158503261392</v>
+        <v>1.031252116367025</v>
       </c>
       <c r="D13">
-        <v>1.009727326454002</v>
+        <v>1.034850743385495</v>
       </c>
       <c r="E13">
-        <v>0.9838909990096789</v>
+        <v>1.04755949446824</v>
       </c>
       <c r="F13">
-        <v>0.9873116974155737</v>
+        <v>1.052990165061738</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040982767882413</v>
+        <v>1.037436181220868</v>
       </c>
       <c r="J13">
-        <v>1.018528606796378</v>
+        <v>1.037914651342602</v>
       </c>
       <c r="K13">
-        <v>1.024627093013857</v>
+        <v>1.038457491997684</v>
       </c>
       <c r="L13">
-        <v>0.9992883731274989</v>
+        <v>1.051119155159339</v>
       </c>
       <c r="M13">
-        <v>1.002641224130766</v>
+        <v>1.056530087183212</v>
       </c>
       <c r="N13">
-        <v>1.00991970639014</v>
+        <v>1.016580252604258</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9892837154689585</v>
+        <v>1.031421870072265</v>
       </c>
       <c r="D14">
-        <v>1.010430664952631</v>
+        <v>1.034976755002603</v>
       </c>
       <c r="E14">
-        <v>0.9850399252531702</v>
+        <v>1.047782620103349</v>
       </c>
       <c r="F14">
-        <v>0.988535450059022</v>
+        <v>1.053226866561994</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041343606474032</v>
+        <v>1.037485204334832</v>
       </c>
       <c r="J14">
-        <v>1.019145503221983</v>
+        <v>1.038023111583679</v>
       </c>
       <c r="K14">
-        <v>1.025175233527043</v>
+        <v>1.038551381084947</v>
       </c>
       <c r="L14">
-        <v>1.00026693837091</v>
+        <v>1.051310259089347</v>
       </c>
       <c r="M14">
-        <v>1.00369411623828</v>
+        <v>1.056734911696301</v>
       </c>
       <c r="N14">
-        <v>1.010126246039384</v>
+        <v>1.016616463952871</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9898774860431312</v>
+        <v>1.031526452119678</v>
       </c>
       <c r="D15">
-        <v>1.010862257056797</v>
+        <v>1.035054386392241</v>
       </c>
       <c r="E15">
-        <v>0.9857448239163016</v>
+        <v>1.047920107412136</v>
       </c>
       <c r="F15">
-        <v>0.9892862300060908</v>
+        <v>1.053372718014444</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041564706071453</v>
+        <v>1.037515370987356</v>
       </c>
       <c r="J15">
-        <v>1.019523843329978</v>
+        <v>1.038089914340926</v>
       </c>
       <c r="K15">
-        <v>1.025511387638072</v>
+        <v>1.038609204232082</v>
       </c>
       <c r="L15">
-        <v>1.00086721955457</v>
+        <v>1.0514280035746</v>
       </c>
       <c r="M15">
-        <v>1.004339991651343</v>
+        <v>1.056861109909002</v>
       </c>
       <c r="N15">
-        <v>1.010252918469629</v>
+        <v>1.016638766307594</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9932952635830822</v>
+        <v>1.032135030620477</v>
       </c>
       <c r="D16">
-        <v>1.013348045909432</v>
+        <v>1.035506104187516</v>
       </c>
       <c r="E16">
-        <v>0.989803164104315</v>
+        <v>1.048720531744992</v>
       </c>
       <c r="F16">
-        <v>0.9936083213303153</v>
+        <v>1.054221819344882</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042833248683015</v>
+        <v>1.037690372110335</v>
       </c>
       <c r="J16">
-        <v>1.021699798134075</v>
+        <v>1.038478381490426</v>
       </c>
       <c r="K16">
-        <v>1.027444425641974</v>
+        <v>1.038945377917466</v>
       </c>
       <c r="L16">
-        <v>1.004321771761975</v>
+        <v>1.052113314450958</v>
       </c>
       <c r="M16">
-        <v>1.008056926249192</v>
+        <v>1.057595625518544</v>
       </c>
       <c r="N16">
-        <v>1.010981485808399</v>
+        <v>1.016768443539713</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9954064363467311</v>
+        <v>1.032516658009197</v>
       </c>
       <c r="D17">
-        <v>1.014884791278374</v>
+        <v>1.035789339666351</v>
       </c>
       <c r="E17">
-        <v>0.9923109609216981</v>
+        <v>1.049222785075882</v>
       </c>
       <c r="F17">
-        <v>0.9962787496552307</v>
+        <v>1.054754601349137</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04361317665699</v>
+        <v>1.037799633248305</v>
       </c>
       <c r="J17">
-        <v>1.023042290153683</v>
+        <v>1.038721745217267</v>
       </c>
       <c r="K17">
-        <v>1.02863677431637</v>
+        <v>1.039155914303624</v>
       </c>
       <c r="L17">
-        <v>1.006455163509831</v>
+        <v>1.052543182262806</v>
       </c>
       <c r="M17">
-        <v>1.010352341992308</v>
+        <v>1.058056358530856</v>
       </c>
       <c r="N17">
-        <v>1.011431013080052</v>
+        <v>1.016849670284886</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9966264255748156</v>
+        <v>1.032739212495185</v>
       </c>
       <c r="D18">
-        <v>1.015773263732742</v>
+        <v>1.035954504518771</v>
       </c>
       <c r="E18">
-        <v>0.9937605477003606</v>
+        <v>1.049515802395726</v>
       </c>
       <c r="F18">
-        <v>0.9978222180240782</v>
+        <v>1.055065423723171</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044062543987609</v>
+        <v>1.037863178747045</v>
       </c>
       <c r="J18">
-        <v>1.023817491125036</v>
+        <v>1.038863582968922</v>
       </c>
       <c r="K18">
-        <v>1.029325173397204</v>
+        <v>1.039278595342957</v>
       </c>
       <c r="L18">
-        <v>1.007687858441489</v>
+        <v>1.052793914127459</v>
       </c>
       <c r="M18">
-        <v>1.011678649004314</v>
+        <v>1.058325093690798</v>
       </c>
       <c r="N18">
-        <v>1.0116905930443</v>
+        <v>1.016897006537836</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9970405064248699</v>
+        <v>1.032815090660655</v>
       </c>
       <c r="D19">
-        <v>1.016074893688039</v>
+        <v>1.036010814397029</v>
       </c>
       <c r="E19">
-        <v>0.9942526301653268</v>
+        <v>1.049615724228008</v>
       </c>
       <c r="F19">
-        <v>0.9983461488871564</v>
+        <v>1.055171416316626</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044214837899947</v>
+        <v>1.037884814796191</v>
       </c>
       <c r="J19">
-        <v>1.024080503876626</v>
+        <v>1.038911926951699</v>
       </c>
       <c r="K19">
-        <v>1.02955871750558</v>
+        <v>1.039320405836226</v>
       </c>
       <c r="L19">
-        <v>1.008106233125569</v>
+        <v>1.052879406812465</v>
       </c>
       <c r="M19">
-        <v>1.01212879407205</v>
+        <v>1.058416725060177</v>
       </c>
       <c r="N19">
-        <v>1.011778665311204</v>
+        <v>1.016913139864186</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9951811169573932</v>
+        <v>1.032475717381931</v>
       </c>
       <c r="D20">
-        <v>1.014720733739842</v>
+        <v>1.035758955481412</v>
       </c>
       <c r="E20">
-        <v>0.9920432708304324</v>
+        <v>1.049168891708415</v>
       </c>
       <c r="F20">
-        <v>0.9959937127317502</v>
+        <v>1.054697432731488</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043530075073255</v>
+        <v>1.037787929663978</v>
       </c>
       <c r="J20">
-        <v>1.022899070681903</v>
+        <v>1.038695646198195</v>
       </c>
       <c r="K20">
-        <v>1.028509583065697</v>
+        <v>1.039133338285408</v>
       </c>
       <c r="L20">
-        <v>1.006227487650892</v>
+        <v>1.052497061815501</v>
       </c>
       <c r="M20">
-        <v>1.010107375583354</v>
+        <v>1.058006926524799</v>
       </c>
       <c r="N20">
-        <v>1.011383055885156</v>
+        <v>1.016840959761168</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9889992394879208</v>
+        <v>1.031371883673866</v>
       </c>
       <c r="D21">
-        <v>1.010223916932873</v>
+        <v>1.034939649497812</v>
       </c>
       <c r="E21">
-        <v>0.9847022215531447</v>
+        <v>1.047716912619471</v>
       </c>
       <c r="F21">
-        <v>0.9881757582560701</v>
+        <v>1.053157161406701</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041237604551319</v>
+        <v>1.037470776188026</v>
       </c>
       <c r="J21">
-        <v>1.018964208600937</v>
+        <v>1.037991177574571</v>
       </c>
       <c r="K21">
-        <v>1.025014148794349</v>
+        <v>1.038523738300727</v>
       </c>
       <c r="L21">
-        <v>0.9999793289045211</v>
+        <v>1.051253983947608</v>
       </c>
       <c r="M21">
-        <v>1.003384661416564</v>
+        <v>1.056674596180022</v>
       </c>
       <c r="N21">
-        <v>1.010065547269469</v>
+        <v>1.016605802415726</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9850014718114759</v>
+        <v>1.030677475193785</v>
       </c>
       <c r="D22">
-        <v>1.007320426587558</v>
+        <v>1.034424146744938</v>
       </c>
       <c r="E22">
-        <v>0.9799571898385191</v>
+        <v>1.0468045322206</v>
       </c>
       <c r="F22">
-        <v>0.9831212855884381</v>
+        <v>1.05218925103583</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039743112470671</v>
+        <v>1.037269705419663</v>
       </c>
       <c r="J22">
-        <v>1.016414378231017</v>
+        <v>1.037547238358539</v>
       </c>
       <c r="K22">
-        <v>1.022748246038987</v>
+        <v>1.038139366218159</v>
       </c>
       <c r="L22">
-        <v>0.9959364367373532</v>
+        <v>1.050472371701362</v>
       </c>
       <c r="M22">
-        <v>0.9990346961612796</v>
+        <v>1.055836868410807</v>
       </c>
       <c r="N22">
-        <v>1.009211894441979</v>
+        <v>1.016457571880092</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9871316957971722</v>
+        <v>1.031045630862941</v>
       </c>
       <c r="D23">
-        <v>1.008867102697061</v>
+        <v>1.034697459712205</v>
       </c>
       <c r="E23">
-        <v>0.9824854418618847</v>
+        <v>1.047288152310816</v>
       </c>
       <c r="F23">
-        <v>0.9858145271096331</v>
+        <v>1.052702310282385</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040540565568148</v>
+        <v>1.037376454550034</v>
       </c>
       <c r="J23">
-        <v>1.017773538991291</v>
+        <v>1.037782674900377</v>
       </c>
       <c r="K23">
-        <v>1.023956132866987</v>
+        <v>1.038343232669425</v>
       </c>
       <c r="L23">
-        <v>0.9980909701444449</v>
+        <v>1.05088672364776</v>
       </c>
       <c r="M23">
-        <v>1.001352872829881</v>
+        <v>1.056280968170949</v>
       </c>
       <c r="N23">
-        <v>1.00966691350337</v>
+        <v>1.016536187501283</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9952829643034761</v>
+        <v>1.032494216819628</v>
       </c>
       <c r="D24">
-        <v>1.014794888593381</v>
+        <v>1.035772684915216</v>
       </c>
       <c r="E24">
-        <v>0.9921642690416002</v>
+        <v>1.049193243610864</v>
       </c>
       <c r="F24">
-        <v>0.9961225522457403</v>
+        <v>1.05472326458405</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043567642224723</v>
+        <v>1.037793218580491</v>
       </c>
       <c r="J24">
-        <v>1.022963809607587</v>
+        <v>1.038707439568001</v>
       </c>
       <c r="K24">
-        <v>1.028567077142778</v>
+        <v>1.03914353979087</v>
       </c>
       <c r="L24">
-        <v>1.006330400557526</v>
+        <v>1.052517901668364</v>
       </c>
       <c r="M24">
-        <v>1.010218104100472</v>
+        <v>1.058029262728045</v>
       </c>
       <c r="N24">
-        <v>1.011404733761537</v>
+        <v>1.016844895801421</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004297288995297</v>
+        <v>1.034173561845715</v>
       </c>
       <c r="D25">
-        <v>1.021366542715978</v>
+        <v>1.037018790269218</v>
       </c>
       <c r="E25">
-        <v>1.002883755525536</v>
+        <v>1.051406415312721</v>
       </c>
       <c r="F25">
-        <v>1.007534108007187</v>
+        <v>1.057070818508356</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046863894651429</v>
+        <v>1.038269605577242</v>
       </c>
       <c r="J25">
-        <v>1.028680892668481</v>
+        <v>1.039776176827122</v>
       </c>
       <c r="K25">
-        <v>1.033641984102833</v>
+        <v>1.040067494161296</v>
       </c>
       <c r="L25">
-        <v>1.015437469242752</v>
+        <v>1.054410692483306</v>
       </c>
       <c r="M25">
-        <v>1.02001658175059</v>
+        <v>1.060057966616152</v>
       </c>
       <c r="N25">
-        <v>1.013319213050337</v>
+        <v>1.017201489598143</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_214/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_214/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035511682083039</v>
+        <v>1.011165980846393</v>
       </c>
       <c r="D2">
-        <v>1.03801135020667</v>
+        <v>1.026384248706763</v>
       </c>
       <c r="E2">
-        <v>1.05317367678067</v>
+        <v>1.011070231251191</v>
       </c>
       <c r="F2">
-        <v>1.058945210776702</v>
+        <v>1.016245432337329</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03864372796957</v>
+        <v>1.049332856977327</v>
       </c>
       <c r="J2">
-        <v>1.04062505500605</v>
+        <v>1.033017772398529</v>
       </c>
       <c r="K2">
-        <v>1.040800599443739</v>
+        <v>1.037487850449811</v>
       </c>
       <c r="L2">
-        <v>1.055920375723657</v>
+        <v>1.022377464819193</v>
       </c>
       <c r="M2">
-        <v>1.061676059821212</v>
+        <v>1.02748298846723</v>
       </c>
       <c r="N2">
-        <v>1.0174845810174</v>
+        <v>1.014771546010513</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036482519387162</v>
+        <v>1.015983553781577</v>
       </c>
       <c r="D3">
-        <v>1.038731259459284</v>
+        <v>1.029908285540235</v>
       </c>
       <c r="E3">
-        <v>1.054458096582255</v>
+        <v>1.016825310313173</v>
       </c>
       <c r="F3">
-        <v>1.060307389221325</v>
+        <v>1.022367406047091</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038911985225507</v>
+        <v>1.051039039399898</v>
       </c>
       <c r="J3">
-        <v>1.041239363595641</v>
+        <v>1.036047775749754</v>
       </c>
       <c r="K3">
-        <v>1.041330672385524</v>
+        <v>1.040172268081747</v>
       </c>
       <c r="L3">
-        <v>1.057016579847988</v>
+        <v>1.027247340934776</v>
       </c>
       <c r="M3">
-        <v>1.062850983470368</v>
+        <v>1.032721872424783</v>
       </c>
       <c r="N3">
-        <v>1.017689361002727</v>
+        <v>1.015786175010066</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037110368941933</v>
+        <v>1.019027251223564</v>
       </c>
       <c r="D4">
-        <v>1.039196727220969</v>
+        <v>1.032136542707354</v>
       </c>
       <c r="E4">
-        <v>1.055289787392761</v>
+        <v>1.020468204741048</v>
       </c>
       <c r="F4">
-        <v>1.06118938298625</v>
+        <v>1.026241597640971</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039083997356095</v>
+        <v>1.052104922466031</v>
       </c>
       <c r="J4">
-        <v>1.04163591361019</v>
+        <v>1.037956450839413</v>
       </c>
       <c r="K4">
-        <v>1.041672634513445</v>
+        <v>1.041861982803953</v>
       </c>
       <c r="L4">
-        <v>1.057725929407401</v>
+        <v>1.030325716824875</v>
       </c>
       <c r="M4">
-        <v>1.063611272047857</v>
+        <v>1.036033298971371</v>
       </c>
       <c r="N4">
-        <v>1.017821511258822</v>
+        <v>1.016425262464468</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037374233940513</v>
+        <v>1.020289885080728</v>
       </c>
       <c r="D5">
-        <v>1.039392322754204</v>
+        <v>1.033061282517745</v>
       </c>
       <c r="E5">
-        <v>1.055639572270549</v>
+        <v>1.021981167572899</v>
       </c>
       <c r="F5">
-        <v>1.061560312424626</v>
+        <v>1.027850398594626</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039155935671901</v>
+        <v>1.052544152771824</v>
       </c>
       <c r="J5">
-        <v>1.041802396034907</v>
+        <v>1.038746852275571</v>
       </c>
       <c r="K5">
-        <v>1.041816148461871</v>
+        <v>1.042561392533407</v>
       </c>
       <c r="L5">
-        <v>1.058024149354668</v>
+        <v>1.031603208557939</v>
       </c>
       <c r="M5">
-        <v>1.063930907301618</v>
+        <v>1.037407449422637</v>
       </c>
       <c r="N5">
-        <v>1.0178769819035</v>
+        <v>1.016689898483595</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037418533174451</v>
+        <v>1.020500912781821</v>
       </c>
       <c r="D6">
-        <v>1.039425158980966</v>
+        <v>1.033215857799841</v>
       </c>
       <c r="E6">
-        <v>1.055698311077561</v>
+        <v>1.022234140055502</v>
       </c>
       <c r="F6">
-        <v>1.061622601334797</v>
+        <v>1.028119382429727</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039167992403105</v>
+        <v>1.052617388828888</v>
       </c>
       <c r="J6">
-        <v>1.041830335841113</v>
+        <v>1.038878872140144</v>
       </c>
       <c r="K6">
-        <v>1.041840230598621</v>
+        <v>1.042678195049717</v>
       </c>
       <c r="L6">
-        <v>1.058074222395921</v>
+        <v>1.03181674950241</v>
       </c>
       <c r="M6">
-        <v>1.063984576099245</v>
+        <v>1.037637144145602</v>
       </c>
       <c r="N6">
-        <v>1.017886290663243</v>
+        <v>1.016734099261179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037113895044737</v>
+        <v>1.019044188274337</v>
       </c>
       <c r="D7">
-        <v>1.039199341121034</v>
+        <v>1.032148945794333</v>
       </c>
       <c r="E7">
-        <v>1.055294460674783</v>
+        <v>1.020488492621485</v>
       </c>
       <c r="F7">
-        <v>1.061194338813821</v>
+        <v>1.026263171532461</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039084960075362</v>
+        <v>1.052110825988481</v>
       </c>
       <c r="J7">
-        <v>1.041638139049348</v>
+        <v>1.037967058846311</v>
       </c>
       <c r="K7">
-        <v>1.041674553124406</v>
+        <v>1.04187137088422</v>
       </c>
       <c r="L7">
-        <v>1.057729914197912</v>
+        <v>1.030342851211557</v>
       </c>
       <c r="M7">
-        <v>1.063615542988595</v>
+        <v>1.036051730017465</v>
       </c>
       <c r="N7">
-        <v>1.017822252795649</v>
+        <v>1.016428814224485</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035839853051306</v>
+        <v>1.012809764078281</v>
       </c>
       <c r="D8">
-        <v>1.038254721477007</v>
+        <v>1.027586257758006</v>
       </c>
       <c r="E8">
-        <v>1.053607632437742</v>
+        <v>1.013032516678153</v>
       </c>
       <c r="F8">
-        <v>1.05940544788962</v>
+        <v>1.018333015576922</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038734711398074</v>
+        <v>1.04991752727956</v>
       </c>
       <c r="J8">
-        <v>1.040832859864835</v>
+        <v>1.034052797161975</v>
       </c>
       <c r="K8">
-        <v>1.040979953317112</v>
+        <v>1.038405084141136</v>
       </c>
       <c r="L8">
-        <v>1.056290837388673</v>
+        <v>1.024038801228125</v>
       </c>
       <c r="M8">
-        <v>1.062073124665259</v>
+        <v>1.029270251239707</v>
       </c>
       <c r="N8">
-        <v>1.017553861058028</v>
+        <v>1.015118143870208</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033592162828015</v>
+        <v>1.001227408418818</v>
       </c>
       <c r="D9">
-        <v>1.036587433868439</v>
+        <v>1.019126724305693</v>
       </c>
       <c r="E9">
-        <v>1.050639621684401</v>
+        <v>0.9992306138001776</v>
       </c>
       <c r="F9">
-        <v>1.056257492898296</v>
+        <v>1.003645704754117</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038105523401001</v>
+        <v>1.045747990148243</v>
       </c>
       <c r="J9">
-        <v>1.039406591704153</v>
+        <v>1.026736898058706</v>
       </c>
       <c r="K9">
-        <v>1.03974809655138</v>
+        <v>1.031916922686213</v>
       </c>
       <c r="L9">
-        <v>1.053755171218597</v>
+        <v>1.012336186104375</v>
       </c>
       <c r="M9">
-        <v>1.05935537397483</v>
+        <v>1.016679908573882</v>
       </c>
       <c r="N9">
-        <v>1.017078196417213</v>
+        <v>1.012668209394598</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032091897317371</v>
+        <v>0.9930551092314641</v>
       </c>
       <c r="D10">
-        <v>1.035474090230713</v>
+        <v>1.013173295446265</v>
       </c>
       <c r="E10">
-        <v>1.048663780542634</v>
+        <v>0.9895179424729307</v>
       </c>
       <c r="F10">
-        <v>1.054161617861556</v>
+        <v>0.9933045858719488</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037677999562609</v>
+        <v>1.042744348136728</v>
       </c>
       <c r="J10">
-        <v>1.038450863863562</v>
+        <v>1.021547004801512</v>
       </c>
       <c r="K10">
-        <v>1.038921568871639</v>
+        <v>1.027308706850905</v>
       </c>
       <c r="L10">
-        <v>1.05206473482828</v>
+        <v>1.004079068401625</v>
       </c>
       <c r="M10">
-        <v>1.057543557850101</v>
+        <v>1.007795789595297</v>
       </c>
       <c r="N10">
-        <v>1.016759258462094</v>
+        <v>1.010930324806255</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031441833579004</v>
+        <v>0.989397206906182</v>
       </c>
       <c r="D11">
-        <v>1.034991574057097</v>
+        <v>1.010513151981498</v>
       </c>
       <c r="E11">
-        <v>1.047808863438217</v>
+        <v>0.9851746542911501</v>
       </c>
       <c r="F11">
-        <v>1.053254706497086</v>
+        <v>0.9886789500831231</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037490964898982</v>
+        <v>1.041385882705966</v>
       </c>
       <c r="J11">
-        <v>1.038035864494887</v>
+        <v>1.019217824865269</v>
       </c>
       <c r="K11">
-        <v>1.038562420045498</v>
+        <v>1.025239492194154</v>
       </c>
       <c r="L11">
-        <v>1.051332734623532</v>
+        <v>1.000381677304078</v>
       </c>
       <c r="M11">
-        <v>1.056759000906156</v>
+        <v>1.003817570153203</v>
       </c>
       <c r="N11">
-        <v>1.016620721614795</v>
+        <v>1.010150459977348</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031200304560227</v>
+        <v>0.9880194299229963</v>
       </c>
       <c r="D12">
-        <v>1.034812281644463</v>
+        <v>1.009511963084193</v>
       </c>
       <c r="E12">
-        <v>1.047491402099101</v>
+        <v>0.9835391449376459</v>
       </c>
       <c r="F12">
-        <v>1.052917929223464</v>
+        <v>0.986936917278873</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037421204328413</v>
+        <v>1.040872149165739</v>
       </c>
       <c r="J12">
-        <v>1.037881540380285</v>
+        <v>1.018339628423212</v>
       </c>
       <c r="K12">
-        <v>1.038428827372134</v>
+        <v>1.024459169968344</v>
       </c>
       <c r="L12">
-        <v>1.051060830453608</v>
+        <v>0.9989886530219998</v>
       </c>
       <c r="M12">
-        <v>1.056467575008337</v>
+        <v>1.002318738826086</v>
       </c>
       <c r="N12">
-        <v>1.016569197566155</v>
+        <v>1.009856436632921</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031252116367025</v>
+        <v>0.988315850326139</v>
       </c>
       <c r="D13">
-        <v>1.034850743385495</v>
+        <v>1.009727326454001</v>
       </c>
       <c r="E13">
-        <v>1.04755949446824</v>
+        <v>0.9838909990096785</v>
       </c>
       <c r="F13">
-        <v>1.052990165061738</v>
+        <v>0.9873116974155728</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037436181220868</v>
+        <v>1.040982767882413</v>
       </c>
       <c r="J13">
-        <v>1.037914651342602</v>
+        <v>1.018528606796377</v>
       </c>
       <c r="K13">
-        <v>1.038457491997684</v>
+        <v>1.024627093013857</v>
       </c>
       <c r="L13">
-        <v>1.051119155159339</v>
+        <v>0.999288373127498</v>
       </c>
       <c r="M13">
-        <v>1.056530087183212</v>
+        <v>1.002641224130765</v>
       </c>
       <c r="N13">
-        <v>1.016580252604258</v>
+        <v>1.00991970639014</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031421870072265</v>
+        <v>0.9892837154689597</v>
       </c>
       <c r="D14">
-        <v>1.034976755002603</v>
+        <v>1.010430664952632</v>
       </c>
       <c r="E14">
-        <v>1.047782620103349</v>
+        <v>0.9850399252531699</v>
       </c>
       <c r="F14">
-        <v>1.053226866561994</v>
+        <v>0.9885354500590219</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037485204334832</v>
+        <v>1.041343606474033</v>
       </c>
       <c r="J14">
-        <v>1.038023111583679</v>
+        <v>1.019145503221984</v>
       </c>
       <c r="K14">
-        <v>1.038551381084947</v>
+        <v>1.025175233527043</v>
       </c>
       <c r="L14">
-        <v>1.051310259089347</v>
+        <v>1.00026693837091</v>
       </c>
       <c r="M14">
-        <v>1.056734911696301</v>
+        <v>1.00369411623828</v>
       </c>
       <c r="N14">
-        <v>1.016616463952871</v>
+        <v>1.010126246039384</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031526452119678</v>
+        <v>0.9898774860431313</v>
       </c>
       <c r="D15">
-        <v>1.035054386392241</v>
+        <v>1.010862257056797</v>
       </c>
       <c r="E15">
-        <v>1.047920107412136</v>
+        <v>0.9857448239163024</v>
       </c>
       <c r="F15">
-        <v>1.053372718014444</v>
+        <v>0.9892862300060916</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037515370987356</v>
+        <v>1.041564706071453</v>
       </c>
       <c r="J15">
-        <v>1.038089914340926</v>
+        <v>1.019523843329978</v>
       </c>
       <c r="K15">
-        <v>1.038609204232082</v>
+        <v>1.025511387638072</v>
       </c>
       <c r="L15">
-        <v>1.0514280035746</v>
+        <v>1.000867219554571</v>
       </c>
       <c r="M15">
-        <v>1.056861109909002</v>
+        <v>1.004339991651343</v>
       </c>
       <c r="N15">
-        <v>1.016638766307594</v>
+        <v>1.010252918469629</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032135030620477</v>
+        <v>0.9932952635830835</v>
       </c>
       <c r="D16">
-        <v>1.035506104187516</v>
+        <v>1.013348045909433</v>
       </c>
       <c r="E16">
-        <v>1.048720531744992</v>
+        <v>0.9898031641043159</v>
       </c>
       <c r="F16">
-        <v>1.054221819344882</v>
+        <v>0.9936083213303164</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037690372110335</v>
+        <v>1.042833248683016</v>
       </c>
       <c r="J16">
-        <v>1.038478381490426</v>
+        <v>1.021699798134077</v>
       </c>
       <c r="K16">
-        <v>1.038945377917466</v>
+        <v>1.027444425641975</v>
       </c>
       <c r="L16">
-        <v>1.052113314450958</v>
+        <v>1.004321771761977</v>
       </c>
       <c r="M16">
-        <v>1.057595625518544</v>
+        <v>1.008056926249193</v>
       </c>
       <c r="N16">
-        <v>1.016768443539713</v>
+        <v>1.010981485808399</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032516658009197</v>
+        <v>0.9954064363467315</v>
       </c>
       <c r="D17">
-        <v>1.035789339666351</v>
+        <v>1.014884791278374</v>
       </c>
       <c r="E17">
-        <v>1.049222785075882</v>
+        <v>0.9923109609216986</v>
       </c>
       <c r="F17">
-        <v>1.054754601349137</v>
+        <v>0.9962787496552314</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037799633248305</v>
+        <v>1.043613176656991</v>
       </c>
       <c r="J17">
-        <v>1.038721745217267</v>
+        <v>1.023042290153683</v>
       </c>
       <c r="K17">
-        <v>1.039155914303624</v>
+        <v>1.02863677431637</v>
       </c>
       <c r="L17">
-        <v>1.052543182262806</v>
+        <v>1.006455163509832</v>
       </c>
       <c r="M17">
-        <v>1.058056358530856</v>
+        <v>1.010352341992308</v>
       </c>
       <c r="N17">
-        <v>1.016849670284886</v>
+        <v>1.011431013080052</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032739212495185</v>
+        <v>0.9966264255748146</v>
       </c>
       <c r="D18">
-        <v>1.035954504518771</v>
+        <v>1.015773263732741</v>
       </c>
       <c r="E18">
-        <v>1.049515802395726</v>
+        <v>0.9937605477003606</v>
       </c>
       <c r="F18">
-        <v>1.055065423723171</v>
+        <v>0.9978222180240779</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037863178747045</v>
+        <v>1.044062543987608</v>
       </c>
       <c r="J18">
-        <v>1.038863582968922</v>
+        <v>1.023817491125036</v>
       </c>
       <c r="K18">
-        <v>1.039278595342957</v>
+        <v>1.029325173397203</v>
       </c>
       <c r="L18">
-        <v>1.052793914127459</v>
+        <v>1.007687858441489</v>
       </c>
       <c r="M18">
-        <v>1.058325093690798</v>
+        <v>1.011678649004314</v>
       </c>
       <c r="N18">
-        <v>1.016897006537836</v>
+        <v>1.0116905930443</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032815090660655</v>
+        <v>0.9970405064248715</v>
       </c>
       <c r="D19">
-        <v>1.036010814397029</v>
+        <v>1.01607489368804</v>
       </c>
       <c r="E19">
-        <v>1.049615724228008</v>
+        <v>0.9942526301653287</v>
       </c>
       <c r="F19">
-        <v>1.055171416316626</v>
+        <v>0.9983461488871584</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037884814796191</v>
+        <v>1.044214837899948</v>
       </c>
       <c r="J19">
-        <v>1.038911926951699</v>
+        <v>1.024080503876628</v>
       </c>
       <c r="K19">
-        <v>1.039320405836226</v>
+        <v>1.029558717505582</v>
       </c>
       <c r="L19">
-        <v>1.052879406812465</v>
+        <v>1.00810623312557</v>
       </c>
       <c r="M19">
-        <v>1.058416725060177</v>
+        <v>1.012128794072052</v>
       </c>
       <c r="N19">
-        <v>1.016913139864186</v>
+        <v>1.011778665311204</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032475717381931</v>
+        <v>0.9951811169573941</v>
       </c>
       <c r="D20">
-        <v>1.035758955481412</v>
+        <v>1.014720733739843</v>
       </c>
       <c r="E20">
-        <v>1.049168891708415</v>
+        <v>0.992043270830433</v>
       </c>
       <c r="F20">
-        <v>1.054697432731488</v>
+        <v>0.995993712731751</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037787929663978</v>
+        <v>1.043530075073255</v>
       </c>
       <c r="J20">
-        <v>1.038695646198195</v>
+        <v>1.022899070681904</v>
       </c>
       <c r="K20">
-        <v>1.039133338285408</v>
+        <v>1.028509583065697</v>
       </c>
       <c r="L20">
-        <v>1.052497061815501</v>
+        <v>1.006227487650892</v>
       </c>
       <c r="M20">
-        <v>1.058006926524799</v>
+        <v>1.010107375583355</v>
       </c>
       <c r="N20">
-        <v>1.016840959761168</v>
+        <v>1.011383055885156</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031371883673866</v>
+        <v>0.9889992394879216</v>
       </c>
       <c r="D21">
-        <v>1.034939649497812</v>
+        <v>1.010223916932874</v>
       </c>
       <c r="E21">
-        <v>1.047716912619471</v>
+        <v>0.9847022215531447</v>
       </c>
       <c r="F21">
-        <v>1.053157161406701</v>
+        <v>0.98817575825607</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037470776188026</v>
+        <v>1.04123760455132</v>
       </c>
       <c r="J21">
-        <v>1.037991177574571</v>
+        <v>1.018964208600937</v>
       </c>
       <c r="K21">
-        <v>1.038523738300727</v>
+        <v>1.02501414879435</v>
       </c>
       <c r="L21">
-        <v>1.051253983947608</v>
+        <v>0.999979328904521</v>
       </c>
       <c r="M21">
-        <v>1.056674596180022</v>
+        <v>1.003384661416564</v>
       </c>
       <c r="N21">
-        <v>1.016605802415726</v>
+        <v>1.010065547269469</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030677475193785</v>
+        <v>0.9850014718114772</v>
       </c>
       <c r="D22">
-        <v>1.034424146744938</v>
+        <v>1.007320426587559</v>
       </c>
       <c r="E22">
-        <v>1.0468045322206</v>
+        <v>0.9799571898385203</v>
       </c>
       <c r="F22">
-        <v>1.05218925103583</v>
+        <v>0.9831212855884396</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037269705419663</v>
+        <v>1.039743112470672</v>
       </c>
       <c r="J22">
-        <v>1.037547238358539</v>
+        <v>1.016414378231018</v>
       </c>
       <c r="K22">
-        <v>1.038139366218159</v>
+        <v>1.022748246038989</v>
       </c>
       <c r="L22">
-        <v>1.050472371701362</v>
+        <v>0.9959364367373544</v>
       </c>
       <c r="M22">
-        <v>1.055836868410807</v>
+        <v>0.9990346961612812</v>
       </c>
       <c r="N22">
-        <v>1.016457571880092</v>
+        <v>1.00921189444198</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031045630862941</v>
+        <v>0.9871316957971705</v>
       </c>
       <c r="D23">
-        <v>1.034697459712205</v>
+        <v>1.00886710269706</v>
       </c>
       <c r="E23">
-        <v>1.047288152310816</v>
+        <v>0.9824854418618841</v>
       </c>
       <c r="F23">
-        <v>1.052702310282385</v>
+        <v>0.9858145271096322</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037376454550034</v>
+        <v>1.040540565568147</v>
       </c>
       <c r="J23">
-        <v>1.037782674900377</v>
+        <v>1.01777353899129</v>
       </c>
       <c r="K23">
-        <v>1.038343232669425</v>
+        <v>1.023956132866985</v>
       </c>
       <c r="L23">
-        <v>1.05088672364776</v>
+        <v>0.9980909701444446</v>
       </c>
       <c r="M23">
-        <v>1.056280968170949</v>
+        <v>1.00135287282988</v>
       </c>
       <c r="N23">
-        <v>1.016536187501283</v>
+        <v>1.00966691350337</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032494216819628</v>
+        <v>0.9952829643034763</v>
       </c>
       <c r="D24">
-        <v>1.035772684915216</v>
+        <v>1.014794888593382</v>
       </c>
       <c r="E24">
-        <v>1.049193243610864</v>
+        <v>0.9921642690415998</v>
       </c>
       <c r="F24">
-        <v>1.05472326458405</v>
+        <v>0.9961225522457396</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037793218580491</v>
+        <v>1.043567642224723</v>
       </c>
       <c r="J24">
-        <v>1.038707439568001</v>
+        <v>1.022963809607587</v>
       </c>
       <c r="K24">
-        <v>1.03914353979087</v>
+        <v>1.028567077142779</v>
       </c>
       <c r="L24">
-        <v>1.052517901668364</v>
+        <v>1.006330400557525</v>
       </c>
       <c r="M24">
-        <v>1.058029262728045</v>
+        <v>1.010218104100472</v>
       </c>
       <c r="N24">
-        <v>1.016844895801421</v>
+        <v>1.011404733761537</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034173561845715</v>
+        <v>1.004297288995297</v>
       </c>
       <c r="D25">
-        <v>1.037018790269218</v>
+        <v>1.021366542715978</v>
       </c>
       <c r="E25">
-        <v>1.051406415312721</v>
+        <v>1.002883755525536</v>
       </c>
       <c r="F25">
-        <v>1.057070818508356</v>
+        <v>1.007534108007187</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038269605577242</v>
+        <v>1.046863894651429</v>
       </c>
       <c r="J25">
-        <v>1.039776176827122</v>
+        <v>1.02868089266848</v>
       </c>
       <c r="K25">
-        <v>1.040067494161296</v>
+        <v>1.033641984102833</v>
       </c>
       <c r="L25">
-        <v>1.054410692483306</v>
+        <v>1.015437469242752</v>
       </c>
       <c r="M25">
-        <v>1.060057966616152</v>
+        <v>1.02001658175059</v>
       </c>
       <c r="N25">
-        <v>1.017201489598143</v>
+        <v>1.013319213050337</v>
       </c>
     </row>
   </sheetData>
